--- a/src/app/projects/hyponatremia/ram_db/db_copied.xlsx
+++ b/src/app/projects/hyponatremia/ram_db/db_copied.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,7 +422,7 @@
         <v>Values</v>
       </c>
       <c r="G1" t="str">
-        <v>Examination</v>
+        <v>Radiology</v>
       </c>
       <c r="H1" t="str">
         <v>Values</v>
@@ -434,13 +434,16 @@
         <v>Values</v>
       </c>
       <c r="K1" t="str">
-        <v>Urea</v>
+        <v>Urine</v>
       </c>
       <c r="L1" t="str">
         <v>Values</v>
       </c>
       <c r="M1" t="str">
-        <v>ANSWER</v>
+        <v>ABG</v>
+      </c>
+      <c r="N1" t="str">
+        <v>Values</v>
       </c>
     </row>
     <row r="2">
@@ -463,7 +466,7 @@
         <v>生命徵象及意識狀態</v>
       </c>
       <c r="G2" t="str">
-        <v>Chest</v>
+        <v>ChestCT</v>
       </c>
       <c r="H2" t="str">
         <v>Chest Xray and CT</v>
@@ -481,7 +484,10 @@
         <v>比重</v>
       </c>
       <c r="M2" t="str">
-        <v>請選擇</v>
+        <v>PH</v>
+      </c>
+      <c r="N2" t="str">
+        <v>pH</v>
       </c>
     </row>
     <row r="3">
@@ -501,10 +507,10 @@
         <v>Inspection</v>
       </c>
       <c r="F3" t="str">
-        <v>望診</v>
+        <v>視診</v>
       </c>
       <c r="G3" t="str">
-        <v>Abdominal</v>
+        <v>AbdSono</v>
       </c>
       <c r="H3" t="str">
         <v>腹部超音波</v>
@@ -522,7 +528,10 @@
         <v>顏色</v>
       </c>
       <c r="M3" t="str">
-        <v>CHF</v>
+        <v>PCO2</v>
+      </c>
+      <c r="N3" t="str">
+        <v>CO2 Partial Pressure</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +554,7 @@
         <v>聽診</v>
       </c>
       <c r="G4" t="str">
-        <v>Thyroid</v>
+        <v>ThySono</v>
       </c>
       <c r="H4" t="str">
         <v>甲狀腺超音波</v>
@@ -563,7 +572,10 @@
         <v>pH</v>
       </c>
       <c r="M4" t="str">
-        <v>RO</v>
+        <v>PO2</v>
+      </c>
+      <c r="N4" t="str">
+        <v>Oxygen Partial Pressure</v>
       </c>
     </row>
     <row r="5">
@@ -586,7 +598,7 @@
         <v>扣診</v>
       </c>
       <c r="G5" t="str">
-        <v>Head</v>
+        <v>HeadCT</v>
       </c>
       <c r="H5" t="str">
         <v>CT Scan of head</v>
@@ -604,7 +616,10 @@
         <v>尿糖</v>
       </c>
       <c r="M5" t="str">
-        <v>PP</v>
+        <v>SO2</v>
+      </c>
+      <c r="N5" t="str">
+        <v>Oxygen Saturation</v>
       </c>
     </row>
     <row r="6">
@@ -645,7 +660,10 @@
         <v>尿蛋白</v>
       </c>
       <c r="M6" t="str">
-        <v>Cirhosis</v>
+        <v>HCO3</v>
+      </c>
+      <c r="N6" t="str">
+        <v>Bicarbonate</v>
       </c>
     </row>
     <row r="7">
@@ -686,7 +704,10 @@
         <v>尿潛血</v>
       </c>
       <c r="M7" t="str">
-        <v>SIADH</v>
+        <v>BE</v>
+      </c>
+      <c r="N7" t="str">
+        <v>Base Excess</v>
       </c>
     </row>
     <row r="8">
@@ -727,7 +748,10 @@
         <v>紅血球</v>
       </c>
       <c r="M8" t="str">
-        <v>Endocrine</v>
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -768,7 +792,10 @@
         <v>白血球</v>
       </c>
       <c r="M9" t="str">
-        <v>Hypovolemia</v>
+        <v/>
+      </c>
+      <c r="N9" t="str">
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -808,6 +835,12 @@
       <c r="L10" t="str">
         <v>Na</v>
       </c>
+      <c r="M10" t="str">
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -846,6 +879,12 @@
       <c r="L11" t="str">
         <v>K</v>
       </c>
+      <c r="M11" t="str">
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -884,6 +923,12 @@
       <c r="L12" t="str">
         <v>Creatinine</v>
       </c>
+      <c r="M12" t="str">
+        <v/>
+      </c>
+      <c r="N12" t="str">
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -922,6 +967,12 @@
       <c r="L13" t="str">
         <v>Urine Osmolality</v>
       </c>
+      <c r="M13" t="str">
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -960,6 +1011,12 @@
       <c r="L14" t="str">
         <v>Urine Specific Gravity</v>
       </c>
+      <c r="M14" t="str">
+        <v/>
+      </c>
+      <c r="N14" t="str">
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -998,6 +1055,12 @@
       <c r="L15" t="str">
         <v/>
       </c>
+      <c r="M15" t="str">
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -1036,6 +1099,12 @@
       <c r="L16" t="str">
         <v/>
       </c>
+      <c r="M16" t="str">
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -1074,6 +1143,12 @@
       <c r="L17" t="str">
         <v/>
       </c>
+      <c r="M17" t="str">
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -1112,6 +1187,12 @@
       <c r="L18" t="str">
         <v/>
       </c>
+      <c r="M18" t="str">
+        <v/>
+      </c>
+      <c r="N18" t="str">
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -1150,6 +1231,12 @@
       <c r="L19" t="str">
         <v/>
       </c>
+      <c r="M19" t="str">
+        <v/>
+      </c>
+      <c r="N19" t="str">
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -1188,6 +1275,12 @@
       <c r="L20" t="str">
         <v/>
       </c>
+      <c r="M20" t="str">
+        <v/>
+      </c>
+      <c r="N20" t="str">
+        <v/>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -1226,6 +1319,12 @@
       <c r="L21" t="str">
         <v/>
       </c>
+      <c r="M21" t="str">
+        <v/>
+      </c>
+      <c r="N21" t="str">
+        <v/>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -1264,10 +1363,60 @@
       <c r="L22" t="str">
         <v/>
       </c>
+      <c r="M22" t="str">
+        <v/>
+      </c>
+      <c r="N22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v/>
+      </c>
+      <c r="B23" t="str">
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v>HBA1C</v>
+      </c>
+      <c r="J23" t="str">
+        <v>糖化血色素</v>
+      </c>
+      <c r="K23" t="str">
+        <v/>
+      </c>
+      <c r="L23" t="str">
+        <v/>
+      </c>
+      <c r="M23" t="str">
+        <v/>
+      </c>
+      <c r="N23" t="str">
+        <v/>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N23"/>
   </ignoredErrors>
 </worksheet>
 </file>